--- a/result/Metric 6/Metric 6.xlsx
+++ b/result/Metric 6/Metric 6.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shalin_patel/Downloads/soen6611-measurement-metrics/result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avinash\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663D08DE-D562-B54C-BC69-F79EBB5195D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{567854B6-1BDF-485B-8623-66ADF8D12BF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{7D58F352-D5DE-477E-BFF3-D532756C24AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7D58F352-D5DE-477E-BFF3-D532756C24AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>SLOC</t>
   </si>
@@ -126,6 +124,12 @@
   </si>
   <si>
     <t>commons-lang3.3.5</t>
+  </si>
+  <si>
+    <t>commons-math3-3.4-src</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projects </t>
   </si>
 </sst>
 </file>
@@ -163,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -186,15 +190,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,21 +545,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1047DA5E-C40D-4644-BC00-F75A4A753675}">
   <dimension ref="B3:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:J5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="7"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,752 +573,811 @@
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
-        <f>(H5+I5+J5)</f>
+      <c r="C4" s="2">
+        <f>(H4+I4+J4)</f>
         <v>154791</v>
       </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D35" si="0">(C5/1000)</f>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D35" si="0">(C4/1000)</f>
         <v>154.791</v>
       </c>
-      <c r="E5">
+      <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F35" si="1">(E5/D5)</f>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F35" si="1">(E4/D4)</f>
         <v>1.2920647841282763E-2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H4" s="6">
         <v>14902</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I4" s="2">
         <v>56502</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J4" s="2">
         <v>83387</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6">
-        <f t="shared" ref="C6:C9" si="2">(H6+I6+J6)</f>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C8" si="2">(H5+I5+J5)</f>
         <v>121483</v>
       </c>
-      <c r="D6">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>121.483</v>
       </c>
-      <c r="E6">
+      <c r="E5" s="2">
         <v>34</v>
       </c>
-      <c r="F6">
+      <c r="F5" s="4">
         <f t="shared" si="1"/>
         <v>0.27987455034860842</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H5" s="6">
         <v>10831</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I5" s="2">
         <v>43935</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J5" s="2">
         <v>66717</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7">
+      <c r="C6" s="2">
         <f t="shared" si="2"/>
         <v>125454</v>
       </c>
-      <c r="D7">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>125.45399999999999</v>
       </c>
-      <c r="E7">
+      <c r="E6" s="2">
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="F6" s="4">
         <f t="shared" si="1"/>
         <v>4.7826294896934338E-2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H6" s="6">
         <v>11212</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I6" s="2">
         <v>46094</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J6" s="2">
         <v>68148</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8">
+      <c r="C7" s="2">
         <f t="shared" si="2"/>
         <v>129956</v>
       </c>
-      <c r="D8">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>129.95599999999999</v>
       </c>
-      <c r="E8">
+      <c r="E7" s="2">
         <v>59</v>
       </c>
-      <c r="F8">
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
         <v>0.45399981532210903</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H7" s="6">
         <v>11783</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I7" s="2">
         <v>47403</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J7" s="2">
         <v>70770</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9">
+      <c r="C8" s="2">
         <f t="shared" si="2"/>
         <v>141758</v>
       </c>
-      <c r="D9">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>141.75800000000001</v>
       </c>
-      <c r="E9">
+      <c r="E8" s="2">
         <v>35</v>
       </c>
-      <c r="F9">
+      <c r="F8" s="4">
         <f t="shared" si="1"/>
         <v>0.24689964587536503</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H8" s="6">
         <v>12949</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I8" s="2">
         <v>51624</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J8" s="2">
         <v>77185</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10">
-        <f>(H10+I10+J10)</f>
+      <c r="C9" s="2">
+        <f>(H9+I9+J9)</f>
         <v>107100</v>
       </c>
-      <c r="D10">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>107.1</v>
       </c>
-      <c r="E10">
+      <c r="E9" s="2">
         <v>20</v>
       </c>
-      <c r="F10">
+      <c r="F9" s="4">
         <f t="shared" si="1"/>
         <v>0.18674136321195145</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H9" s="6">
         <v>10061</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I9" s="2">
         <v>40774</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J9" s="2">
         <v>56265</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13">
-        <f>(H13+J13+I13)</f>
+      <c r="C12" s="2">
+        <f>(H12+J12+I12)</f>
         <v>9564</v>
       </c>
-      <c r="D13">
+      <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>9.5640000000000001</v>
       </c>
-      <c r="E13">
+      <c r="E12" s="2">
         <v>23</v>
       </c>
-      <c r="F13">
+      <c r="F12" s="4">
         <f t="shared" si="1"/>
         <v>2.4048515265579256</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H12" s="6">
         <v>1891</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I12" s="2">
         <v>2827</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J12" s="2">
         <v>4846</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14">
-        <f t="shared" ref="C14:C18" si="3">(H14+J14+I14)</f>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13:C17" si="3">(H13+J13+I13)</f>
         <v>18898</v>
       </c>
-      <c r="D14">
+      <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>18.898</v>
       </c>
-      <c r="E14">
+      <c r="E13" s="2">
         <v>14</v>
       </c>
-      <c r="F14">
+      <c r="F13" s="4">
         <f t="shared" si="1"/>
         <v>0.74081913429992596</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H13" s="6">
         <v>2576</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I13" s="2">
         <v>6574</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J13" s="2">
         <v>9748</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="C14" s="2">
         <f t="shared" si="3"/>
         <v>18155</v>
       </c>
-      <c r="D15">
+      <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>18.155000000000001</v>
       </c>
-      <c r="E15">
+      <c r="E14" s="2">
         <v>2</v>
       </c>
-      <c r="F15">
+      <c r="F14" s="4">
         <f t="shared" si="1"/>
         <v>0.11016248967226659</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H14" s="6">
         <v>2189</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I14" s="2">
         <v>6490</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J14" s="2">
         <v>9476</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16">
+      <c r="C15" s="2">
         <f t="shared" si="3"/>
         <v>18150</v>
       </c>
-      <c r="D16">
+      <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>18.149999999999999</v>
       </c>
-      <c r="E16">
+      <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F15" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H15" s="6">
         <v>2189</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I15" s="2">
         <v>6490</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J15" s="2">
         <v>9471</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17">
+      <c r="C16" s="2">
         <f t="shared" si="3"/>
         <v>16604</v>
       </c>
-      <c r="D17">
+      <c r="D16" s="2">
         <f t="shared" si="0"/>
         <v>16.603999999999999</v>
       </c>
-      <c r="E17">
+      <c r="E16" s="2">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F16" s="4">
         <f t="shared" si="1"/>
         <v>0.54203806311732117</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H16" s="6">
         <v>2402</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I16" s="2">
         <v>5784</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J16" s="2">
         <v>8418</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="C17" s="2">
         <f t="shared" si="3"/>
         <v>18257</v>
       </c>
-      <c r="D18">
+      <c r="D17" s="2">
         <f t="shared" si="0"/>
         <v>18.257000000000001</v>
       </c>
-      <c r="E18">
+      <c r="E17" s="2">
         <v>2</v>
       </c>
-      <c r="F18">
+      <c r="F17" s="4">
         <f t="shared" si="1"/>
         <v>0.10954702305964835</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H17" s="6">
         <v>2198</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I17" s="2">
         <v>6503</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J17" s="2">
         <v>9556</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C22">
-        <f>(H22+I22+J22)</f>
+      <c r="C21" s="2">
+        <f>(H21+I21+J21)</f>
         <v>36486</v>
       </c>
-      <c r="D22">
+      <c r="D21" s="2">
         <f t="shared" si="0"/>
         <v>36.485999999999997</v>
       </c>
-      <c r="E22">
+      <c r="E21" s="2">
         <v>13</v>
       </c>
-      <c r="F22">
+      <c r="F21" s="4">
         <f t="shared" si="1"/>
         <v>0.35630104697692266</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H21" s="6">
         <v>3736</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I21" s="2">
         <v>16468</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J21" s="2">
         <v>16282</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C23">
-        <f t="shared" ref="C23:C27" si="4">(H23+I23+J23)</f>
+      <c r="C22" s="2">
+        <f t="shared" ref="C22:C27" si="4">(H22+I22+J22)</f>
         <v>47871</v>
       </c>
-      <c r="D23">
+      <c r="D22" s="2">
         <f t="shared" si="0"/>
         <v>47.871000000000002</v>
       </c>
-      <c r="E23">
+      <c r="E22" s="2">
         <v>24</v>
       </c>
-      <c r="F23">
+      <c r="F22" s="4">
         <f t="shared" si="1"/>
         <v>0.50134737105972293</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H22" s="6">
         <v>4855</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I22" s="2">
         <v>19216</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J22" s="2">
         <v>23800</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C24">
+      <c r="C23" s="2">
         <f t="shared" si="4"/>
         <v>156848</v>
       </c>
-      <c r="D24">
+      <c r="D23" s="2">
         <f t="shared" si="0"/>
         <v>156.84800000000001</v>
       </c>
-      <c r="E24">
+      <c r="E23" s="2">
         <v>66</v>
       </c>
-      <c r="F24">
+      <c r="F23" s="4">
         <f t="shared" si="1"/>
         <v>0.42078955421809644</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H23" s="6">
         <v>18338</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I23" s="2">
         <v>53742</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J23" s="2">
         <v>84768</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C25">
+      <c r="C24" s="2">
         <f t="shared" si="4"/>
         <v>165423</v>
       </c>
-      <c r="D25">
+      <c r="D24" s="2">
         <f t="shared" si="0"/>
         <v>165.423</v>
       </c>
-      <c r="E25">
+      <c r="E24" s="2">
         <v>51</v>
       </c>
-      <c r="F25">
+      <c r="F24" s="4">
         <f t="shared" si="1"/>
         <v>0.30830053861917628</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H24" s="6">
         <v>19179</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I24" s="2">
         <v>57125</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J24" s="2">
         <v>89119</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C26">
+      <c r="C25" s="2">
         <f t="shared" si="4"/>
         <v>193422</v>
       </c>
-      <c r="D26">
+      <c r="D25" s="2">
         <f t="shared" si="0"/>
         <v>193.422</v>
       </c>
-      <c r="E26">
+      <c r="E25" s="2">
         <v>68</v>
       </c>
-      <c r="F26">
+      <c r="F25" s="4">
         <f t="shared" si="1"/>
         <v>0.35156290390958628</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H25" s="6">
         <v>22811</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I25" s="2">
         <v>65594</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J25" s="2">
         <v>105017</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="4"/>
+        <v>362017</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>362.017</v>
+      </c>
+      <c r="E26" s="2">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3147614614783286E-2</v>
+      </c>
+      <c r="H26" s="6">
+        <v>37972</v>
+      </c>
+      <c r="I26" s="2">
+        <v>117377</v>
+      </c>
+      <c r="J26" s="2">
+        <v>206668</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <f t="shared" si="4"/>
         <v>387777</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <f t="shared" si="0"/>
         <v>387.77699999999999</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>37</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="4">
         <f t="shared" si="1"/>
         <v>9.5415664157492586E-2</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="6">
         <v>41120</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>125732</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>220925</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="4"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <f>(H30+I30+J30)</f>
         <v>39741</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <f t="shared" si="0"/>
         <v>39.741</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>84</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="4">
         <f t="shared" si="1"/>
         <v>2.1136861176115347</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="6">
         <v>4282</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="2">
         <v>18230</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <v>17229</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <f t="shared" ref="C31:C35" si="5">(H31+I31+J31)</f>
         <v>46940</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <f t="shared" si="0"/>
         <v>46.94</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>29</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="4">
         <f t="shared" si="1"/>
         <v>0.61780997017469108</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="6">
         <v>5164</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="2">
         <v>20164</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <v>21612</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <f t="shared" si="5"/>
         <v>57513</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <f t="shared" si="0"/>
         <v>57.512999999999998</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>44</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="4">
         <f t="shared" si="1"/>
         <v>0.76504442473875478</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="6">
         <v>6019</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <v>24368</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>27126</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <f t="shared" si="5"/>
         <v>61848</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <f t="shared" si="0"/>
         <v>61.847999999999999</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>11</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="4">
         <f t="shared" si="1"/>
         <v>0.17785538740137111</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="6">
         <v>6429</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="2">
         <v>25506</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <v>29913</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <f t="shared" si="5"/>
         <v>62066</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <f t="shared" si="0"/>
         <v>62.066000000000003</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>14</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="4">
         <f t="shared" si="1"/>
         <v>0.22556633261366932</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="6">
         <v>6445</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="2">
         <v>25477</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>30144</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <f t="shared" si="5"/>
         <v>62865</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <f t="shared" si="0"/>
         <v>62.865000000000002</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>27</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="4">
         <f t="shared" si="1"/>
         <v>0.42949176807444522</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="6">
         <v>6499</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <v>25685</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <v>30681</v>
       </c>
     </row>
